--- a/scraper/top_remaining_spreadsheets_states/top_remaining_RI.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_RI.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
   <si>
     <t>STATE</t>
   </si>
@@ -44,7 +44,7 @@
     <t>Season's Greetings</t>
   </si>
   <si>
-    <t>2019-03-07</t>
+    <t>2019-03-12</t>
   </si>
   <si>
     <t>Match 3 Tripler</t>
@@ -62,12 +62,12 @@
     <t>MAD MONEY</t>
   </si>
   <si>
+    <t>$50 FRENZY</t>
+  </si>
+  <si>
     <t>Holly-day Bucks</t>
   </si>
   <si>
-    <t>$50 FRENZY</t>
-  </si>
-  <si>
     <t>TRIPLE CASH</t>
   </si>
   <si>
@@ -83,15 +83,15 @@
     <t>Cherry Doubler</t>
   </si>
   <si>
+    <t>2 for $1</t>
+  </si>
+  <si>
     <t>5X THE MONEY</t>
   </si>
   <si>
     <t>5X The Money</t>
   </si>
   <si>
-    <t>2 for $1</t>
-  </si>
-  <si>
     <t>Quick 7s</t>
   </si>
   <si>
@@ -125,21 +125,21 @@
     <t>Red Hot Crossword 35!</t>
   </si>
   <si>
+    <t>Find $100</t>
+  </si>
+  <si>
+    <t>MONEY ROLL</t>
+  </si>
+  <si>
+    <t>CROSSWORD 36</t>
+  </si>
+  <si>
+    <t>10X THE CASH</t>
+  </si>
+  <si>
     <t>$100 FRENZY</t>
   </si>
   <si>
-    <t>Find $100</t>
-  </si>
-  <si>
-    <t>MONEY ROLL</t>
-  </si>
-  <si>
-    <t>CROSSWORD 36</t>
-  </si>
-  <si>
-    <t>10X THE CASH</t>
-  </si>
-  <si>
     <t>Holiday Doubler</t>
   </si>
   <si>
@@ -161,18 +161,18 @@
     <t>Dynamite Tripler</t>
   </si>
   <si>
+    <t>Cash Winfall</t>
+  </si>
+  <si>
+    <t>Quick Cash</t>
+  </si>
+  <si>
     <t>Bingo Mania</t>
   </si>
   <si>
     <t>2019-03-03</t>
   </si>
   <si>
-    <t>Cash Winfall</t>
-  </si>
-  <si>
-    <t>Quick Cash</t>
-  </si>
-  <si>
     <t>$1 - 7</t>
   </si>
   <si>
@@ -230,12 +230,12 @@
     <t>50X The Money</t>
   </si>
   <si>
+    <t>SUPER CROSSWORD</t>
+  </si>
+  <si>
     <t>RI Super Loteria</t>
   </si>
   <si>
-    <t>SUPER CROSSWORD</t>
-  </si>
-  <si>
     <t>JACKPOT $50,000</t>
   </si>
   <si>
@@ -254,24 +254,24 @@
     <t>Patriots™</t>
   </si>
   <si>
+    <t>MERRY MINT</t>
+  </si>
+  <si>
     <t>Happy Holidays</t>
   </si>
   <si>
-    <t>MERRY MINT</t>
-  </si>
-  <si>
     <t>Super Crossword</t>
   </si>
   <si>
+    <t>Colossal Cash</t>
+  </si>
+  <si>
     <t>$50,000 Fortune</t>
   </si>
   <si>
     <t>Poker</t>
   </si>
   <si>
-    <t>Colossal Cash</t>
-  </si>
-  <si>
     <t>EMERALD 7S</t>
   </si>
   <si>
@@ -344,10 +344,13 @@
     <t>Pinball Wizard</t>
   </si>
   <si>
+    <t>MONEY CLIP</t>
+  </si>
+  <si>
     <t>Cash Club</t>
   </si>
   <si>
-    <t>MONEY CLIP</t>
+    <t>2019-03-08</t>
   </si>
   <si>
     <t>100X The Money</t>
@@ -875,10 +878,10 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>871</v>
+        <v>169</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -895,10 +898,10 @@
         <v>16</v>
       </c>
       <c r="D9">
-        <v>169</v>
+        <v>871</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -938,7 +941,7 @@
         <v>151</v>
       </c>
       <c r="E11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -1035,7 +1038,7 @@
         <v>22</v>
       </c>
       <c r="D16">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1055,7 +1058,7 @@
         <v>23</v>
       </c>
       <c r="D17">
-        <v>842</v>
+        <v>115</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1075,7 +1078,7 @@
         <v>24</v>
       </c>
       <c r="D18">
-        <v>119</v>
+        <v>842</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1315,7 +1318,7 @@
         <v>36</v>
       </c>
       <c r="D30">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -1335,10 +1338,10 @@
         <v>37</v>
       </c>
       <c r="D31">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1355,7 +1358,7 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1375,7 +1378,7 @@
         <v>39</v>
       </c>
       <c r="D33">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1395,7 +1398,7 @@
         <v>40</v>
       </c>
       <c r="D34">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1555,13 +1558,13 @@
         <v>48</v>
       </c>
       <c r="D42">
-        <v>875</v>
+        <v>850</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1572,10 +1575,10 @@
         <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D43">
-        <v>850</v>
+        <v>876</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1592,16 +1595,16 @@
         <v>29</v>
       </c>
       <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44">
+        <v>875</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
         <v>51</v>
-      </c>
-      <c r="D44">
-        <v>876</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1935,10 +1938,10 @@
         <v>71</v>
       </c>
       <c r="D61">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -1955,10 +1958,10 @@
         <v>72</v>
       </c>
       <c r="D62">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
@@ -2092,10 +2095,10 @@
         <v>61</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D69">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2112,10 +2115,10 @@
         <v>61</v>
       </c>
       <c r="C70" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D70">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2135,7 +2138,7 @@
         <v>80</v>
       </c>
       <c r="D71">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2152,10 +2155,10 @@
         <v>61</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="D72">
-        <v>841</v>
+        <v>884</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2172,10 +2175,10 @@
         <v>61</v>
       </c>
       <c r="C73" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="D73">
-        <v>884</v>
+        <v>841</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2195,7 +2198,7 @@
         <v>82</v>
       </c>
       <c r="D74">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2215,7 +2218,7 @@
         <v>83</v>
       </c>
       <c r="D75">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2235,7 +2238,7 @@
         <v>84</v>
       </c>
       <c r="D76">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2735,7 +2738,7 @@
         <v>109</v>
       </c>
       <c r="D101">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -2755,13 +2758,13 @@
         <v>110</v>
       </c>
       <c r="D102">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="F102" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2772,7 +2775,7 @@
         <v>94</v>
       </c>
       <c r="C103" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D103">
         <v>845</v>
@@ -2789,10 +2792,10 @@
         <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C104" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D104">
         <v>880</v>
@@ -2809,10 +2812,10 @@
         <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C105" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D105">
         <v>142</v>
@@ -2829,10 +2832,10 @@
         <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C106" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D106">
         <v>167</v>
@@ -2849,10 +2852,10 @@
         <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C107" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D107">
         <v>123</v>
@@ -2869,10 +2872,10 @@
         <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C108" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D108">
         <v>289</v>
@@ -2889,10 +2892,10 @@
         <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C109" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D109">
         <v>803</v>
@@ -2909,10 +2912,10 @@
         <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C110" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D110">
         <v>158</v>
